--- a/Methods_Details.xlsx
+++ b/Methods_Details.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usaskca1-my.sharepoint.com/personal/mxl436_usask_ca/Documents/Black_Ducks/Habitat_Maps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxl436\Documents\Git_repositories\NALCMS_WIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{F9C896CC-EEDC-49D8-AB5C-18C5652F0557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E644BAE9-236F-4598-AA75-FF2BDE7AB666}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF14CBF-0F84-425E-AF2B-CD3E4B54E8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query Codes for Reclassificatio" sheetId="1" r:id="rId1"/>
     <sheet name="Reclassification Crosswalk" sheetId="2" r:id="rId2"/>
     <sheet name="Raster Values " sheetId="7" r:id="rId3"/>
-    <sheet name="Colour Paletter" sheetId="8" r:id="rId4"/>
+    <sheet name="Colour Palette" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Reclassification Crosswalk'!$A$1:$K$64</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="171">
   <si>
     <t>CNWI</t>
   </si>
@@ -455,21 +455,9 @@
     <t>Snow and Ice</t>
   </si>
   <si>
-    <t>Forest</t>
-  </si>
-  <si>
-    <t>Shrubland</t>
-  </si>
-  <si>
-    <t>Grassland</t>
-  </si>
-  <si>
     <t>Fen</t>
   </si>
   <si>
-    <t>Lichen-Moss</t>
-  </si>
-  <si>
     <t>Wetland (mixed or unclassified)</t>
   </si>
   <si>
@@ -479,13 +467,7 @@
     <t>Wetlands Reclassification</t>
   </si>
   <si>
-    <t>Settling Reclassification</t>
-  </si>
-  <si>
     <t>Classes</t>
-  </si>
-  <si>
-    <t>Code</t>
   </si>
   <si>
     <t>Value</t>
@@ -896,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -932,131 +914,128 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1615,7 +1594,7 @@
   <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A71" sqref="A1:E71"/>
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,633 +1608,633 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="19" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="19" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="19" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="19" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="21" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="19" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="19" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="21" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="19" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="19" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="19" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="19" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="27" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="27" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="19" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="19" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="16" t="s">
+      <c r="D24" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="19" t="s">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="16" t="s">
+      <c r="D25" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="19" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="16" t="s">
+      <c r="D26" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="19" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="16" t="s">
+      <c r="D27" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="19" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="19" t="s">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="16" t="s">
+      <c r="D30" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="19" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="D31" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="19" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="19" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15" t="s">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="16" t="s">
+      <c r="D34" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="19" t="s">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="19" t="s">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="16" t="s">
+      <c r="D36" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="19" t="s">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="16" t="s">
+      <c r="D37" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="19" t="s">
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="16" t="s">
+      <c r="D38" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16" t="s">
+      <c r="A39" s="32"/>
+      <c r="B39" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="16" t="s">
+      <c r="D39" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="29" t="s">
+      <c r="A40" s="32"/>
+      <c r="B40" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="19" t="s">
+      <c r="A41" s="32"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="16" t="s">
+      <c r="D41" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="19" t="s">
+      <c r="A42" s="32"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="16" t="s">
+      <c r="D42" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="19" t="s">
+      <c r="A43" s="32"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="16" t="s">
+      <c r="D43" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="19" t="s">
+      <c r="A44" s="32"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="33" t="s">
+      <c r="C45" s="44"/>
+      <c r="D45" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="31" t="s">
+      <c r="A46" s="50"/>
+      <c r="B46" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="26" t="s">
+      <c r="C46" s="44"/>
+      <c r="D46" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="13" t="s">
         <v>103</v>
       </c>
       <c r="F46" s="6"/>
@@ -2266,15 +2245,15 @@
       <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="31" t="s">
+      <c r="A47" s="51"/>
+      <c r="B47" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="16" t="s">
+      <c r="C47" s="44"/>
+      <c r="D47" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>76</v>
       </c>
       <c r="F47" s="6"/>
@@ -2285,286 +2264,286 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="16" t="s">
+      <c r="D48" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="19" t="s">
+      <c r="A49" s="34"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="19" t="s">
+      <c r="A50" s="34"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="16" t="s">
+      <c r="D50" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="15" t="s">
+      <c r="A51" s="34"/>
+      <c r="B51" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="16" t="s">
+      <c r="D51" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="19" t="s">
+      <c r="A52" s="34"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="19" t="s">
+      <c r="A53" s="34"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="16" t="s">
+      <c r="D53" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="13" t="s">
         <v>59</v>
       </c>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="19" t="s">
+      <c r="A54" s="34"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="16" t="s">
+      <c r="D54" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="19" t="s">
+      <c r="A55" s="34"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="16" t="s">
+      <c r="D55" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="19" t="s">
+      <c r="A56" s="35"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="38"/>
-      <c r="C57" s="39" t="s">
+      <c r="B57" s="46"/>
+      <c r="C57" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D57" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="39" t="s">
+      <c r="A58" s="47"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="37"/>
+      <c r="C59" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="44" t="s">
+      <c r="D59" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="13" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="19" t="s">
+      <c r="A60" s="38"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60" s="16" t="s">
+      <c r="D60" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="19" t="s">
+      <c r="A61" s="38"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E61" s="16" t="s">
+      <c r="D61" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="19" t="s">
+      <c r="A62" s="38"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" s="16" t="s">
+      <c r="D62" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="13" t="s">
         <v>64</v>
       </c>
       <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="19" t="s">
+      <c r="A63" s="38"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" s="16" t="s">
+      <c r="D63" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="19" t="s">
+      <c r="A64" s="38"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D64" s="44" t="s">
+      <c r="D64" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="19" t="s">
+      <c r="A65" s="38"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="26" t="s">
+      <c r="D65" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="47" t="s">
+      <c r="A66" s="38"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D66" s="28" t="s">
+      <c r="D66" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="48" t="s">
+      <c r="A67" s="38"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="47" t="s">
+      <c r="A68" s="38"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="13" t="s">
         <v>69</v>
       </c>
       <c r="F68" s="5"/>
@@ -2575,13 +2554,13 @@
       <c r="K68" s="4"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="48" t="s">
+      <c r="A69" s="40"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="13" t="s">
         <v>108</v>
       </c>
       <c r="F69" s="5"/>
@@ -2594,7 +2573,7 @@
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="51"/>
+      <c r="C70" s="27"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="G70" s="4"/>
@@ -2604,13 +2583,13 @@
       <c r="K70" s="4"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="52" t="s">
+      <c r="A71" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -2659,10 +2638,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC4BA76-B048-40B1-817F-7D360596C5D4}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,23 +2649,17 @@
     <col min="1" max="2" width="9.140625" style="7"/>
     <col min="3" max="3" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>117</v>
       </c>
@@ -2694,19 +2667,13 @@
         <v>118</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>0</v>
       </c>
@@ -2714,16 +2681,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -2733,14 +2694,8 @@
       <c r="D4" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -2750,10 +2705,8 @@
       <c r="D5" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -2763,10 +2716,8 @@
       <c r="D6" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -2776,10 +2727,8 @@
       <c r="D7" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -2789,10 +2738,8 @@
       <c r="D8" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -2802,10 +2749,8 @@
       <c r="D9" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -2815,14 +2760,8 @@
       <c r="D10" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -2832,10 +2771,8 @@
       <c r="D11" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -2845,14 +2782,8 @@
       <c r="D12" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -2862,10 +2793,8 @@
       <c r="D13" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -2875,14 +2804,8 @@
       <c r="D14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -2892,10 +2815,8 @@
       <c r="D15" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -2905,10 +2826,8 @@
       <c r="D16" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -2919,16 +2838,10 @@
         <v>14</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -2938,14 +2851,8 @@
       <c r="D18" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -2955,14 +2862,8 @@
       <c r="D19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -2972,14 +2873,8 @@
       <c r="D20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -2992,14 +2887,8 @@
       <c r="D21" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -3009,14 +2898,8 @@
       <c r="D22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>20</v>
       </c>
@@ -3026,14 +2909,8 @@
       <c r="D23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>21</v>
       </c>
@@ -3041,16 +2918,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>22</v>
       </c>
@@ -3060,14 +2931,8 @@
       <c r="D25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>23</v>
       </c>
@@ -3077,14 +2942,8 @@
       <c r="D26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>24</v>
       </c>
@@ -3094,14 +2953,8 @@
       <c r="D27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>25</v>
       </c>
@@ -3111,25 +2964,10 @@
       <c r="D28" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="7">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3140,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB603BF-95AA-4B69-9BD9-AA935E90E7D9}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="A1:C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3151,289 +2989,289 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="53" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="53" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="54">
-        <v>1</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="54" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="54">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>12</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>14</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>16</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>18</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
+        <v>19</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>20</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
+        <v>21</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
+        <v>23</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>24</v>
+      </c>
+      <c r="B25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="54">
-        <v>3</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="54">
-        <v>4</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
-        <v>5</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="54">
-        <v>6</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
-        <v>7</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="54">
-        <v>8</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
-        <v>9</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="54">
-        <v>10</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
-        <v>11</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="54">
-        <v>12</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
-        <v>13</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="54">
-        <v>14</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="54">
-        <v>15</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="54">
-        <v>16</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
-        <v>17</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="54">
-        <v>18</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="54" t="s">
+      <c r="C25" s="29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
-        <v>19</v>
-      </c>
-      <c r="B20" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="54" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
+        <v>25</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="29" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="54">
-        <v>20</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="54">
-        <v>21</v>
-      </c>
-      <c r="B22" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="54">
-        <v>22</v>
-      </c>
-      <c r="B23" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
-        <v>23</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="54">
-        <v>24</v>
-      </c>
-      <c r="B25" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="54">
-        <v>25</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
